--- a/biology/Zoologie/Chrysolina_sanguinolenta/Chrysolina_sanguinolenta.xlsx
+++ b/biology/Zoologie/Chrysolina_sanguinolenta/Chrysolina_sanguinolenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina sanguinolenta, la chrysomèle sanguinolente ou chrysomèle de la linaire, est une espèce d'insectes coléoptères de la famille des Chrysomelidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps long de 6 à 9 mm, noir y compris les élytres ponctués dont les bords sont rouge orangé.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chrysolina kuesteri qui diffère par des détails de ponctuation (difficile à distinguer).</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, de l'Espagne à la Scandinavie et au nord de la Russie. Présente en France.
 </t>
@@ -603,7 +621,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes, visibles de mars à octobre, se nourrissent de linaires, notamment de Linaria vulgaris ainsi que leurs larves.
 Sur les autres projets Wikimedia :
